--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12809.28142801857</v>
+        <v>2549047.004175694</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12809.28142801857</v>
+        <v>2549047.004175694</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28548.31941120065</v>
+        <v>1715742.556490977</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28548.31941120065</v>
+        <v>1715742.556490977</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>961181287.5414023</v>
+        <v>40843959.01349139</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10631.67472996591</v>
+        <v>1199473.840524371</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18858.32080043921</v>
+        <v>1986584.490732242</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27084.96687091249</v>
+        <v>2773695.140940114</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35941.90984828312</v>
+        <v>3488916.335906911</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44922.46472221985</v>
+        <v>4228736.298290364</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53366.42706888747</v>
+        <v>5040135.244284605</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61687.12803533556</v>
+        <v>5827005.175615156</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70007.82900178367</v>
+        <v>6613875.106945707</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78863.79654208719</v>
+        <v>7328794.006561105</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87843.67778408018</v>
+        <v>8068371.73281271</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96823.52345292296</v>
+        <v>8807949.45906432</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105803.404694916</v>
+        <v>9547527.185315935</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114783.2859369089</v>
+        <v>10287104.91156755</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123769.6490207157</v>
+        <v>11025997.78937574</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>132757.1881289916</v>
+        <v>11765124.69605329</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
